--- a/v0.7.1/StructureDefinition-PaymentReconciliation.xlsx
+++ b/v0.7.1/StructureDefinition-PaymentReconciliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>PaymentReconciliation resource</t>
@@ -1444,10 +1448,10 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -1516,7 +1520,7 @@
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -1525,15 +1529,15 @@
         <v>73</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1544,7 +1548,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1553,19 +1557,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1615,13 +1619,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1644,10 +1648,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1658,7 +1662,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1667,16 +1671,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1727,19 +1731,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1756,10 +1760,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1770,28 +1774,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1841,19 +1845,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1870,10 +1874,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1884,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1896,16 +1900,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1931,13 +1935,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -1955,19 +1959,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -1984,21 +1988,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2010,16 +2014,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2069,19 +2073,19 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -2093,19 +2097,19 @@
         <v>73</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2124,16 +2128,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2183,7 +2187,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2207,19 +2211,19 @@
         <v>73</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2238,16 +2242,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2297,7 +2301,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2309,7 +2313,7 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -2321,19 +2325,19 @@
         <v>73</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2346,25 +2350,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2413,7 +2417,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2425,7 +2429,7 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
@@ -2437,15 +2441,15 @@
         <v>73</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2468,17 +2472,17 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2527,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2539,13 +2543,13 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>73</v>
@@ -2556,10 +2560,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2567,34 +2571,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -2619,13 +2623,13 @@
         <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>73</v>
@@ -2643,25 +2647,25 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -2672,10 +2676,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2686,7 +2690,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2695,20 +2699,20 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2757,25 +2761,25 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -2786,10 +2790,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2797,10 +2801,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2809,20 +2813,20 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>73</v>
@@ -2871,25 +2875,25 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
@@ -2900,10 +2904,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2914,7 +2918,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2923,22 +2927,22 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -2987,25 +2991,25 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>73</v>
@@ -3016,10 +3020,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3030,7 +3034,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -3042,17 +3046,17 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3101,28 +3105,28 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>73</v>
@@ -3130,10 +3134,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3141,10 +3145,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -3156,17 +3160,17 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -3215,19 +3219,19 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3236,7 +3240,7 @@
         <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>73</v>
@@ -3244,10 +3248,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3255,10 +3259,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3270,19 +3274,19 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -3307,13 +3311,13 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>
@@ -3331,19 +3335,19 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -3360,10 +3364,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3374,7 +3378,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3386,17 +3390,17 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3445,22 +3449,22 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
@@ -3474,10 +3478,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3485,10 +3489,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3497,20 +3501,20 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -3559,19 +3563,19 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>73</v>
@@ -3588,10 +3592,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3599,10 +3603,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3611,20 +3615,20 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3673,19 +3677,19 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
@@ -3702,10 +3706,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3713,10 +3717,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3728,19 +3732,19 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>73</v>
@@ -3789,19 +3793,19 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -3818,10 +3822,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3844,17 +3848,17 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>73</v>
@@ -3903,7 +3907,7 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -3915,7 +3919,7 @@
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -3932,10 +3936,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3946,7 +3950,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3958,13 +3962,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4015,13 +4019,13 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
@@ -4039,19 +4043,19 @@
         <v>73</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4070,16 +4074,16 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4129,7 +4133,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4141,7 +4145,7 @@
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
@@ -4153,19 +4157,19 @@
         <v>73</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4178,25 +4182,25 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4245,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4257,7 +4261,7 @@
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
@@ -4269,15 +4273,15 @@
         <v>73</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4288,7 +4292,7 @@
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -4300,17 +4304,17 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -4359,19 +4363,19 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
@@ -4388,10 +4392,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4402,7 +4406,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4414,17 +4418,17 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4473,19 +4477,19 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
@@ -4502,10 +4506,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4513,10 +4517,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4528,19 +4532,19 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4565,13 +4569,13 @@
         <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>73</v>
@@ -4589,19 +4593,19 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
@@ -4618,10 +4622,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4632,7 +4636,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -4644,17 +4648,17 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -4703,19 +4707,19 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>73</v>
@@ -4732,10 +4736,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4746,7 +4750,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -4758,17 +4762,17 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -4817,19 +4821,19 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>73</v>
@@ -4846,10 +4850,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4860,7 +4864,7 @@
         <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4872,17 +4876,17 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -4931,19 +4935,19 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>73</v>
@@ -4960,10 +4964,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4974,7 +4978,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -4986,17 +4990,17 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5045,19 +5049,19 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
@@ -5074,10 +5078,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5088,7 +5092,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5100,17 +5104,17 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5159,19 +5163,19 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>73</v>
@@ -5188,10 +5192,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5202,7 +5206,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -5214,17 +5218,17 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5273,19 +5277,19 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5302,10 +5306,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5316,7 +5320,7 @@
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
@@ -5328,17 +5332,17 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5387,19 +5391,19 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>73</v>
@@ -5416,10 +5420,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5430,7 +5434,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -5442,19 +5446,19 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -5479,13 +5483,13 @@
         <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>73</v>
@@ -5503,19 +5507,19 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
@@ -5532,10 +5536,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5558,17 +5562,17 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>73</v>
@@ -5617,7 +5621,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5629,7 +5633,7 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5646,10 +5650,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5660,7 +5664,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -5672,13 +5676,13 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5729,13 +5733,13 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
@@ -5753,19 +5757,19 @@
         <v>73</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5784,16 +5788,16 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5843,7 +5847,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5855,7 +5859,7 @@
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
@@ -5867,19 +5871,19 @@
         <v>73</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5892,25 +5896,25 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -5959,7 +5963,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -5971,7 +5975,7 @@
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
@@ -5983,15 +5987,15 @@
         <v>73</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6002,7 +6006,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -6014,17 +6018,17 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6049,13 +6053,13 @@
         <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>73</v>
@@ -6073,19 +6077,19 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
@@ -6102,10 +6106,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6116,7 +6120,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6128,17 +6132,17 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6187,19 +6191,19 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
@@ -6208,7 +6212,7 @@
         <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>73</v>
